--- a/biology/Médecine/Hypoplasie/Hypoplasie.xlsx
+++ b/biology/Médecine/Hypoplasie/Hypoplasie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypoplasie ou hypoplastie — du grec  ὑπό (hypo) « en dessous » et  πλάσσειν (plassein) « former» — est un terme général créé par Virchow en 1870 pour désigner un arrêt du développement ou un développement insuffisant d'un tissu ou organe.
-La plupart des causes d'hypoplasie sont des maladies génétiques, mais elles peuvent aussi résulter de phénomènes toxicologiques (ex. : exposition de l'embryon in utero à certains produits chimiques ou médicaments tératogènes, par exemple des antivitamines K, qui peuvent franchir la barrière placentaire[1]).
+La plupart des causes d'hypoplasie sont des maladies génétiques, mais elles peuvent aussi résulter de phénomènes toxicologiques (ex. : exposition de l'embryon in utero à certains produits chimiques ou médicaments tératogènes, par exemple des antivitamines K, qui peuvent franchir la barrière placentaire).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hypoplasie des seins durant la puberté ;
 hypoplasie testiculaire du syndrome de Klinefelter ;
